--- a/KS3/Year-9.xlsx
+++ b/KS3/Year-9.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>Lesson</t>
   </si>
@@ -46,15 +46,6 @@
 - Use HTML to structure static web pages</t>
   </si>
   <si>
-    <t xml:space="preserve"> -Apply HTML tags to construct a web page structure from a provided design
-- Display images within a web page</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Assess the benefits of using CSS to style pages instead of in-line formatting
-- Describe what CSS is
-- Use CSS to style static web pages</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Analyse how search engines select and rank results when searches are made
 - Describe what a search engine is
 - Explain how search engines ‘crawl’ through the World Wide Web and how they select and rank results</t>
@@ -69,9 +60,6 @@
 - Implement navigation to complete a functioning website</t>
   </si>
   <si>
-    <t>Mobile app development</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Identify when a problem needs to be broken down
 - Implement and customise GUI elements to meet the needs of the user</t>
   </si>
@@ -84,18 +72,6 @@
 - Use relational operators to form logical expressions</t>
   </si>
   <si>
-    <t xml:space="preserve"> -Describe how iteration (while statements) controls the flow of program execution
-- Use multi-branch selection (if, elif, else statements) to control the flow of program execution</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Use iteration (while loops) to control the flow of program execution
-- Use variables as counters in iterative programs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Combine iteration and selection to control the flow of program execution
-- Use Boolean variables as flags</t>
-  </si>
-  <si>
     <t>Applying programming skills with physical computing</t>
   </si>
   <si>
@@ -157,22 +133,8 @@
 I can use HTML to structure static web pages</t>
   </si>
   <si>
-    <t>Learners should apply HTML tags to construct a web page structure from a provided design
-Learners should display images within a web page</t>
-  </si>
-  <si>
     <t>I can apply HTML tags to construct a web page structure from a provided design
 I can display images within a web page</t>
-  </si>
-  <si>
-    <t>Learners should state the benefits of using CSS to style pages instead of in-line formatting
-Learners should describe what CSS is
-Learners should use CSS to style static web pages</t>
-  </si>
-  <si>
-    <t>I can state the benefits of using CSS to style pages instead of in-line formatting
-I can describe what CSS is
-I can use CSS to style static web pages</t>
   </si>
   <si>
     <t xml:space="preserve"> Learners should analyse how search engines select and rank results when searches are made
@@ -313,30 +275,6 @@
 I can use relational operators to form logical expressions</t>
   </si>
   <si>
-    <t>Learners should describe how iteration (while statements) controls the flow of program execution
-Learners should use multi-branch selection (if, elif, else statements) to control the flow of program execution</t>
-  </si>
-  <si>
-    <t>I can describe how iteration (while statements) controls the flow of program execution
-I can use multi-branch selection (if, elif, else statements) to control the flow of program execution</t>
-  </si>
-  <si>
-    <t>Learners should use iteration (while loops) to control the flow of program execution
-Learners should use variables as counters in iterative programs</t>
-  </si>
-  <si>
-    <t>Learners should use iteration and selection to control the flow of program execution
-Learners should use Boolean variables as flags</t>
-  </si>
-  <si>
-    <t>I can use iteration (while loops) to control the flow of program execution
-I can use variables as counters in iterative programs</t>
-  </si>
-  <si>
-    <t>I can use iteration and selection to control the flow of program execution
-I can use Boolean variables as flags</t>
-  </si>
-  <si>
     <t>Learners should describe what the micro:bit is
 Learners should list the micro:bit’s input and output devices
 Learners should use a development environment to write, execute, and debug a Python program for the micro:bit</t>
@@ -389,9 +327,6 @@
 Learners should use variables in a block-based programming language</t>
   </si>
   <si>
-    <t xml:space="preserve">  W3schools, Crystal Teachcomp,  VSCode</t>
-  </si>
-  <si>
     <t>MIT App Inventor, App Lab</t>
   </si>
   <si>
@@ -399,6 +334,74 @@
   </si>
   <si>
     <t>Mu IDE (Offline), Repl.it (Web Based), microbit.org</t>
+  </si>
+  <si>
+    <t>Introduction to Mobile App Development</t>
+  </si>
+  <si>
+    <t>Design (DE)</t>
+  </si>
+  <si>
+    <t>Introduction to User Interface (UI) Design</t>
+  </si>
+  <si>
+    <t>Discuss Design Principles and their importance in design            Discuss Design Elements and their importance in design            Discuss the meaning of User Interface (UI) Design and how it's importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss Wireframe and it's importance                                                Create a simple Wireframe using paper or an online wireframe tool </t>
+  </si>
+  <si>
+    <t>Learners should discuss design principles and their importance in design                                                      Learners should discuss Design Elements and their importance in design                                                            Learners should discuss the meaning of User Interface (UI) Design and how it's importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learners should discuss Wireframe and it's importance                                                Learners should create a simple Wireframe using paper or an online wireframe tool </t>
+  </si>
+  <si>
+    <t>Discuss Prototype and it's importance                                                   Create the complete User Interface (UI) Design of a Wireframe, putting design principle and elements into consideration.</t>
+  </si>
+  <si>
+    <t>Learners should discuss prototype and it's importance                                                   Learners should create the complete User Interface (UI) of a wireframe, putting design principles and elements into consideration.</t>
+  </si>
+  <si>
+    <t>I can discuss design principles and their importance in design                                                                           I can discuss design elements and their importance in design                                                                             I can discuss the meaning of User Interface (UI) Design and how it's importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can discuss Wireframe and it's importance                                                I can create a simple Wireframe using paper or an online wireframe tool </t>
+  </si>
+  <si>
+    <t>I can discuss prototype and it's importance                                                   I can create the complete User Interface (UI) of a wireframe, putting design principles and elements into consideration.</t>
+  </si>
+  <si>
+    <t>Figma.com, Paintz.app</t>
+  </si>
+  <si>
+    <t>whimsical.com, Figma.com, Paintz.app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  W3schools.com, Crystal Teachcomp,  VSCode</t>
+  </si>
+  <si>
+    <t>Learners should apply HTML tags to construct a web page structure from a User Interface (UI) design
+Learners should display images within a web page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Apply HTML tags to construct a web page structure from a User Interface (UI) design
+- Display images within a web page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Assess the benefits of using CSS to style pages instead of in-line formatting
+- Describe what CSS is
+- Use CSS to style static web pages according to a User Interface (UI) Design</t>
+  </si>
+  <si>
+    <t>Learners should state the benefits of using CSS to style pages instead of in-line formatting
+Learners should describe what CSS is
+Learners should use CSS to style static web pages according to a User Interface (UI) Design</t>
+  </si>
+  <si>
+    <t>I can state the benefits of using CSS to style pages instead of in-line formatting
+I can describe what CSS is
+I can use CSS to style static web pages according to a User Interface (UI) Design</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,11 +589,78 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -823,13 +893,13 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="60" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="5" customWidth="1"/>
@@ -839,7 +909,7 @@
     <col min="8" max="9" width="12.7109375" style="11"/>
     <col min="10" max="10" width="54.85546875" style="7" customWidth="1"/>
     <col min="11" max="11" width="54.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="48.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="49.7109375" style="14" customWidth="1"/>
     <col min="13" max="13" width="53.140625" style="14" customWidth="1"/>
     <col min="14" max="16384" width="12.7109375" style="1"/>
   </cols>
@@ -854,19 +924,19 @@
     </row>
     <row r="2" spans="1:13" s="19" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
       <c r="A2" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>0</v>
@@ -875,43 +945,41 @@
         <v>0</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="75" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="100.5" customHeight="1">
       <c r="A3" s="4">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11">
         <v>1</v>
       </c>
@@ -921,38 +989,36 @@
       <c r="I3" s="11">
         <v>1</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>88</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="100.5" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11">
         <v>2</v>
       </c>
@@ -962,17 +1028,17 @@
       <c r="I4" s="11">
         <v>2</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>88</v>
+      <c r="J4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="87.75" customHeight="1">
@@ -980,20 +1046,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11">
         <v>3</v>
       </c>
@@ -1003,17 +1067,17 @@
       <c r="I5" s="11">
         <v>3</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="21" t="s">
+      <c r="J5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>88</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="114" customHeight="1">
@@ -1021,13 +1085,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>2</v>
@@ -1035,40 +1099,40 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="12">
-        <v>4</v>
-      </c>
-      <c r="H6" s="12">
-        <v>2</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="109.5" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="96.75" customHeight="1">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>2</v>
@@ -1076,40 +1140,40 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="12">
-        <v>5</v>
-      </c>
-      <c r="H7" s="12">
-        <v>2</v>
-      </c>
-      <c r="I7" s="12">
-        <v>2</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>7</v>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="86.25" customHeight="1">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>2</v>
@@ -1117,26 +1181,26 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="12">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12">
-        <v>2</v>
-      </c>
-      <c r="I8" s="12">
-        <v>3</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>8</v>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="78" customHeight="1">
@@ -1144,40 +1208,40 @@
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>3</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="106.5" customHeight="1">
@@ -1185,40 +1249,40 @@
         <v>3</v>
       </c>
       <c r="B10" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>3</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="M10" s="15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="86.25" customHeight="1">
@@ -1226,40 +1290,40 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11">
-        <v>3</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="G11" s="12">
+        <v>6</v>
+      </c>
+      <c r="H11" s="12">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12">
         <v>3</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="110.25" customHeight="1">
@@ -1267,22 +1331,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="11">
         <v>4</v>
@@ -1291,16 +1355,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="91.5" customHeight="1">
@@ -1308,22 +1372,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="11">
         <v>4</v>
@@ -1332,16 +1396,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="89.25" customHeight="1">
@@ -1349,22 +1413,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" s="11">
         <v>4</v>
@@ -1373,16 +1437,16 @@
         <v>3</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="94.5" customHeight="1">
@@ -1390,22 +1454,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" s="11">
         <v>5</v>
@@ -1414,16 +1478,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="99" customHeight="1">
@@ -1431,22 +1495,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="11">
         <v>5</v>
@@ -1455,16 +1519,16 @@
         <v>2</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="79.5" customHeight="1">
@@ -1472,22 +1536,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="11">
         <v>5</v>
@@ -1496,16 +1560,16 @@
         <v>3</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="83.25" customHeight="1">
@@ -1513,22 +1577,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="4">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" s="11">
         <v>6</v>
@@ -1537,16 +1601,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="82.5" customHeight="1">
@@ -1554,22 +1618,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="11">
         <v>6</v>
@@ -1578,16 +1642,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="78.75" customHeight="1">
@@ -1595,22 +1659,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="4">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H20" s="11">
         <v>6</v>
@@ -1619,16 +1683,16 @@
         <v>3</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="81.75" customHeight="1">
@@ -1636,16 +1700,16 @@
         <v>3</v>
       </c>
       <c r="B21" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -1660,16 +1724,16 @@
         <v>1</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" customHeight="1">
@@ -1677,16 +1741,16 @@
         <v>3</v>
       </c>
       <c r="B22" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -1701,16 +1765,16 @@
         <v>2</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="75.75" customHeight="1">
@@ -1718,16 +1782,16 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -1742,16 +1806,16 @@
         <v>3</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="91.5" customHeight="1">
@@ -1759,16 +1823,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -1783,16 +1847,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="75.75" customHeight="1">
@@ -1800,16 +1864,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -1824,16 +1888,16 @@
         <v>2</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="66.75" customHeight="1">
@@ -1841,16 +1905,16 @@
         <v>3</v>
       </c>
       <c r="B26" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -1865,16 +1929,16 @@
         <v>3</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1883,12 +1947,12 @@
     <filterColumn colId="3"/>
   </autoFilter>
   <conditionalFormatting sqref="J3:J26 A3:F26">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$F3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J26 A3:F26">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$F3=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KS3/Year-9.xlsx
+++ b/KS3/Year-9.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
   <si>
     <t>Lesson</t>
   </si>
@@ -39,11 +39,6 @@
   </si>
   <si>
     <t>Developing for the Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Describe what HTML is
-- Modify HTML tags using inline styling to improve the appearance of web pages
-- Use HTML to structure static web pages</t>
   </si>
   <si>
     <t xml:space="preserve"> -Analyse how search engines select and rank results when searches are made
@@ -123,16 +118,6 @@
     <t>Programming (PR)</t>
   </si>
   <si>
-    <t>Learners should describe what HTML is
-Learners should modify HTML tags using inline styling to improve the appearance of web pages
-Learners should use HTML to structure static web pages</t>
-  </si>
-  <si>
-    <t>I can describe what HTML is
-I can modify HTML tags using inline styling to improve the appearance of web pages
-I can use HTML to structure static web pages</t>
-  </si>
-  <si>
     <t>I can apply HTML tags to construct a web page structure from a provided design
 I can display images within a web page</t>
   </si>
@@ -402,6 +387,21 @@
     <t>I can state the benefits of using CSS to style pages instead of in-line formatting
 I can describe what CSS is
 I can use CSS to style static web pages according to a User Interface (UI) Design</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>Learners should describe what HTML is
+Learners should use HTML to structure static web pages</t>
+  </si>
+  <si>
+    <t>I can describe what HTML is
+I can use HTML to structure static web pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Describe what HTML is
+- Use HTML to structure static web pages</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,75 +592,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -891,10 +828,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="60" customHeight="1"/>
@@ -914,7 +851,7 @@
     <col min="14" max="16384" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" hidden="1" customHeight="1">
+    <row r="1" spans="1:14" ht="12.75" hidden="1" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -922,21 +859,21 @@
       <c r="E1" s="8"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:13" s="19" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
       <c r="A2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>0</v>
@@ -945,25 +882,25 @@
         <v>0</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="100.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:14" ht="100.5" customHeight="1">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -971,13 +908,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="11">
@@ -990,19 +927,19 @@
         <v>1</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="100.5" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="100.5" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1010,13 +947,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="11">
@@ -1029,19 +966,19 @@
         <v>2</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="87.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="87.75" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1049,13 +986,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="11">
@@ -1068,142 +1005,145 @@
         <v>3</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="114" customHeight="1">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="96.75" customHeight="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="M7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="86.25" customHeight="1">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="114" customHeight="1">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="96.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11">
-        <v>2</v>
-      </c>
-      <c r="J7" s="23" t="s">
+      <c r="L8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="86.25" customHeight="1">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>3</v>
-      </c>
-      <c r="H8" s="11">
-        <v>2</v>
-      </c>
-      <c r="I8" s="11">
-        <v>3</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="78" customHeight="1">
+    </row>
+    <row r="9" spans="1:14" ht="78" customHeight="1">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -1211,10 +1151,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>2</v>
@@ -1232,19 +1172,19 @@
         <v>1</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="106.5" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="106.5" customHeight="1">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1252,10 +1192,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>2</v>
@@ -1273,19 +1213,19 @@
         <v>2</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="86.25" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="86.25" customHeight="1">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -1293,10 +1233,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>2</v>
@@ -1314,19 +1254,19 @@
         <v>3</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="110.25" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="110.25" customHeight="1">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -1334,13 +1274,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1355,33 +1295,33 @@
         <v>1</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="91.5" customHeight="1">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="91.5" customHeight="1">
-      <c r="A13" s="4">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1396,33 +1336,33 @@
         <v>2</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="89.25" customHeight="1">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="89.25" customHeight="1">
-      <c r="A14" s="4">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1437,33 +1377,33 @@
         <v>3</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="94.5" customHeight="1">
+      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="94.5" customHeight="1">
-      <c r="A15" s="4">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1478,33 +1418,33 @@
         <v>1</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="99" customHeight="1">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="99" customHeight="1">
-      <c r="A16" s="4">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1519,16 +1459,16 @@
         <v>2</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="79.5" customHeight="1">
@@ -1539,13 +1479,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1560,16 +1500,16 @@
         <v>3</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="83.25" customHeight="1">
@@ -1580,13 +1520,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -1601,16 +1541,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="82.5" customHeight="1">
@@ -1621,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -1642,16 +1582,16 @@
         <v>2</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="78.75" customHeight="1">
@@ -1662,13 +1602,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -1683,16 +1623,16 @@
         <v>3</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="81.75" customHeight="1">
@@ -1703,13 +1643,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -1724,16 +1664,16 @@
         <v>1</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" customHeight="1">
@@ -1744,13 +1684,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -1765,16 +1705,16 @@
         <v>2</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="75.75" customHeight="1">
@@ -1785,13 +1725,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -1806,16 +1746,16 @@
         <v>3</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="91.5" customHeight="1">
@@ -1826,13 +1766,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -1847,16 +1787,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="75.75" customHeight="1">
@@ -1867,13 +1807,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -1888,16 +1828,16 @@
         <v>2</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="66.75" customHeight="1">
@@ -1908,13 +1848,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -1929,16 +1869,16 @@
         <v>3</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1947,12 +1887,12 @@
     <filterColumn colId="3"/>
   </autoFilter>
   <conditionalFormatting sqref="J3:J26 A3:F26">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>$F3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J26 A3:F26">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>$F3=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KS3/Year-9.xlsx
+++ b/KS3/Year-9.xlsx
@@ -830,7 +830,7 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
